--- a/Archivos_Excel_Matrices/Salida del programa (lo que queremos que se muestre en pantalla y txt.xlsx
+++ b/Archivos_Excel_Matrices/Salida del programa (lo que queremos que se muestre en pantalla y txt.xlsx
@@ -1,13 +1,8 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="153222"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Guillermo\Dropbox\Gente\Víctor-Memo\TESIS!!!\Diseño\Nueva distribucion de brete\5. Operaciones\Programación de Rutas\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="6" rupBuild="4507"/>
+  <workbookPr/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7755"/>
   </bookViews>
@@ -15,8 +10,8 @@
     <sheet name="Hoja2 (2)" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="152511"/>
-  <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+  <extLst xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main">
+    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
   </extLst>
@@ -143,12 +138,12 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="2">
     <numFmt numFmtId="164" formatCode="#,###,000"/>
     <numFmt numFmtId="165" formatCode="&quot;₡&quot;#,##0"/>
   </numFmts>
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="6">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -232,7 +227,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -278,6 +273,9 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="4">
@@ -286,7 +284,7 @@
     <cellStyle name="Normal 2" xfId="1"/>
     <cellStyle name="Normal 3" xfId="3"/>
   </cellStyles>
-  <dxfs count="29">
+  <dxfs count="14">
     <dxf>
       <font>
         <color rgb="FFFF0000"/>
@@ -427,158 +425,6 @@
         </patternFill>
       </fill>
     </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color rgb="FFFF0000"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
@@ -635,7 +481,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Calibri Light"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -670,7 +516,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -847,21 +693,21 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="B2:N18"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3:N18"/>
+      <selection activeCell="E3" sqref="E3:N6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
   <cols>
     <col min="2" max="2" width="6.140625" style="4" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="3.85546875" style="4" bestFit="1" customWidth="1"/>
@@ -872,14 +718,14 @@
     <col min="8" max="8" width="21.5703125" style="4" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="10.5703125" style="4" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="9.85546875" style="4" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="10.5703125" style="4" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="15.7109375" style="4" customWidth="1"/>
     <col min="12" max="12" width="10.7109375" style="4" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="8.140625" style="4" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="9.85546875" style="4" bestFit="1" customWidth="1"/>
     <col min="15" max="15" width="7" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:14" ht="25.5" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:14" ht="30">
       <c r="B2" s="3" t="s">
         <v>11</v>
       </c>
@@ -907,7 +753,7 @@
       <c r="J2" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="K2" s="2" t="s">
+      <c r="K2" s="16" t="s">
         <v>36</v>
       </c>
       <c r="L2" s="2" t="s">
@@ -920,7 +766,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:14">
       <c r="B3" s="5">
         <v>41548</v>
       </c>
@@ -961,7 +807,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="4" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:14">
       <c r="B4" s="5">
         <v>41548</v>
       </c>
@@ -1002,7 +848,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="5" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:14">
       <c r="B5" s="5">
         <v>41548</v>
       </c>
@@ -1043,7 +889,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="6" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:14">
       <c r="B6" s="5">
         <v>41548</v>
       </c>
@@ -1084,7 +930,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="7" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:14">
       <c r="B7" s="5">
         <v>41548</v>
       </c>
@@ -1125,7 +971,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="8" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:14">
       <c r="B8" s="5">
         <v>41548</v>
       </c>
@@ -1166,7 +1012,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="9" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:14">
       <c r="B9" s="5">
         <v>41548</v>
       </c>
@@ -1207,7 +1053,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="10" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:14">
       <c r="B10" s="5">
         <v>41548</v>
       </c>
@@ -1248,7 +1094,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="11" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:14">
       <c r="B11" s="5">
         <v>41548</v>
       </c>
@@ -1289,7 +1135,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="12" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="12" spans="2:14">
       <c r="B12" s="5">
         <v>41548</v>
       </c>
@@ -1330,7 +1176,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="13" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="13" spans="2:14">
       <c r="B13" s="5">
         <v>41548</v>
       </c>
@@ -1371,7 +1217,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="14" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="14" spans="2:14">
       <c r="B14" s="5">
         <v>41548</v>
       </c>
@@ -1412,7 +1258,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="15" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="15" spans="2:14">
       <c r="B15" s="5">
         <v>41548</v>
       </c>
@@ -1453,7 +1299,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="16" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="16" spans="2:14">
       <c r="B16" s="5">
         <v>41548</v>
       </c>
@@ -1494,7 +1340,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="17" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:14">
       <c r="B17" s="5">
         <v>41548</v>
       </c>
@@ -1535,7 +1381,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="18" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:14">
       <c r="B18" s="5">
         <v>41548</v>
       </c>
